--- a/test.xlsx
+++ b/test.xlsx
@@ -390,7 +390,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>+628998955028</v>
+        <v>+6282324654900</v>
       </c>
       <c r="B2" t="str">
         <v>testing</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -390,10 +390,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>+6282324654900</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <v>testing</v>
+        <v/>
       </c>
     </row>
   </sheetData>
